--- a/REGULAR/OJT/RODRIQUEZ, RUEL.xlsx
+++ b/REGULAR/OJT/RODRIQUEZ, RUEL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C84586A-4C7C-4E3D-BB8F-15370AC6F933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="188">
   <si>
     <t>PERIOD</t>
   </si>
@@ -592,12 +591,18 @@
   </si>
   <si>
     <t>5/1-31/2023</t>
+  </si>
+  <si>
+    <t>SL(21-0-0)</t>
+  </si>
+  <si>
+    <t>6/1-29/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1282,7 +1287,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1299,25 +1304,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K441" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K441" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1624,7 +1629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1633,25 +1638,25 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2160" topLeftCell="A386" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C392" sqref="C392"/>
+      <selection pane="bottomLeft" activeCell="I393" sqref="I393"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1672,7 +1677,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1690,7 +1695,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1710,7 +1715,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1718,7 +1723,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1731,7 +1736,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -1748,7 +1753,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1783,7 +1788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1802,12 +1807,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>220.708</v>
+        <v>199.708</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>75</v>
       </c>
@@ -1825,7 +1830,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>35084</v>
       </c>
@@ -1843,7 +1848,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>35096</v>
       </c>
@@ -1863,7 +1868,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>35125</v>
@@ -1884,7 +1889,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" ref="A14:A22" si="0">EDATE(A13,1)</f>
         <v>35156</v>
@@ -1905,7 +1910,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>35186</v>
@@ -1926,7 +1931,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>35217</v>
@@ -1947,7 +1952,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>35247</v>
@@ -1968,7 +1973,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>35278</v>
@@ -1989,7 +1994,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>35309</v>
@@ -2010,7 +2015,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>35339</v>
@@ -2031,7 +2036,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f>EDATE(A20,1)</f>
         <v>35370</v>
@@ -2056,7 +2061,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -2081,7 +2086,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>79</v>
       </c>
@@ -2099,7 +2104,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f>EDATE(A22,1)</f>
         <v>35431</v>
@@ -2120,7 +2125,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f>EDATE(A24,1)</f>
         <v>35462</v>
@@ -2147,7 +2152,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f t="shared" ref="A26:A34" si="1">EDATE(A25,1)</f>
         <v>35490</v>
@@ -2168,7 +2173,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f t="shared" si="1"/>
         <v>35521</v>
@@ -2189,7 +2194,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="1"/>
         <v>35551</v>
@@ -2210,7 +2215,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f t="shared" si="1"/>
         <v>35582</v>
@@ -2231,7 +2236,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f t="shared" si="1"/>
         <v>35612</v>
@@ -2252,7 +2257,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f t="shared" si="1"/>
         <v>35643</v>
@@ -2273,7 +2278,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f t="shared" si="1"/>
         <v>35674</v>
@@ -2294,7 +2299,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f t="shared" si="1"/>
         <v>35704</v>
@@ -2315,7 +2320,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f t="shared" si="1"/>
         <v>35735</v>
@@ -2336,7 +2341,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f>EDATE(A34,1)</f>
         <v>35765</v>
@@ -2361,7 +2366,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>81</v>
       </c>
@@ -2379,7 +2384,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f>EDATE(A35,1)</f>
         <v>35796</v>
@@ -2400,7 +2405,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <f>EDATE(A37,1)</f>
         <v>35827</v>
@@ -2421,7 +2426,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <f t="shared" ref="A39:A48" si="2">EDATE(A38,1)</f>
         <v>35855</v>
@@ -2442,7 +2447,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f t="shared" si="2"/>
         <v>35886</v>
@@ -2469,7 +2474,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f t="shared" si="2"/>
         <v>35916</v>
@@ -2490,7 +2495,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f t="shared" si="2"/>
         <v>35947</v>
@@ -2511,7 +2516,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f t="shared" si="2"/>
         <v>35977</v>
@@ -2532,7 +2537,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <f t="shared" si="2"/>
         <v>36008</v>
@@ -2553,7 +2558,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f t="shared" si="2"/>
         <v>36039</v>
@@ -2574,7 +2579,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f t="shared" si="2"/>
         <v>36069</v>
@@ -2595,7 +2600,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <f t="shared" si="2"/>
         <v>36100</v>
@@ -2622,7 +2627,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f t="shared" si="2"/>
         <v>36130</v>
@@ -2643,7 +2648,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>85</v>
       </c>
@@ -2661,7 +2666,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <f>EDATE(A48,1)</f>
         <v>36161</v>
@@ -2682,7 +2687,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <f>EDATE(A50,1)</f>
         <v>36192</v>
@@ -2703,7 +2708,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <f t="shared" ref="A52:A60" si="3">EDATE(A51,1)</f>
         <v>36220</v>
@@ -2724,7 +2729,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f t="shared" si="3"/>
         <v>36251</v>
@@ -2745,7 +2750,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f t="shared" si="3"/>
         <v>36281</v>
@@ -2766,7 +2771,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <f t="shared" si="3"/>
         <v>36312</v>
@@ -2787,7 +2792,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <f t="shared" si="3"/>
         <v>36342</v>
@@ -2808,7 +2813,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <f t="shared" si="3"/>
         <v>36373</v>
@@ -2829,7 +2834,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <f t="shared" si="3"/>
         <v>36404</v>
@@ -2850,7 +2855,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f t="shared" si="3"/>
         <v>36434</v>
@@ -2871,7 +2876,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <f t="shared" si="3"/>
         <v>36465</v>
@@ -2892,7 +2897,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <f>EDATE(A60,1)</f>
         <v>36495</v>
@@ -2917,7 +2922,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>86</v>
       </c>
@@ -2935,7 +2940,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <f>EDATE(A61,1)</f>
         <v>36526</v>
@@ -2956,7 +2961,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <f>EDATE(A63,1)</f>
         <v>36557</v>
@@ -2977,7 +2982,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <f t="shared" ref="A65:A74" si="4">EDATE(A64,1)</f>
         <v>36586</v>
@@ -2998,7 +3003,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f t="shared" si="4"/>
         <v>36617</v>
@@ -3019,7 +3024,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <f t="shared" si="4"/>
         <v>36647</v>
@@ -3040,7 +3045,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f t="shared" si="4"/>
         <v>36678</v>
@@ -3061,7 +3066,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <f t="shared" si="4"/>
         <v>36708</v>
@@ -3082,7 +3087,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f t="shared" si="4"/>
         <v>36739</v>
@@ -3103,7 +3108,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <f t="shared" si="4"/>
         <v>36770</v>
@@ -3124,7 +3129,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f t="shared" si="4"/>
         <v>36800</v>
@@ -3145,7 +3150,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f t="shared" si="4"/>
         <v>36831</v>
@@ -3166,7 +3171,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <f t="shared" si="4"/>
         <v>36861</v>
@@ -3191,7 +3196,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>87</v>
       </c>
@@ -3209,7 +3214,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <f>EDATE(A74,1)</f>
         <v>36892</v>
@@ -3230,7 +3235,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f>EDATE(A76,1)</f>
         <v>36923</v>
@@ -3251,7 +3256,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <f t="shared" ref="A78:A87" si="5">EDATE(A77,1)</f>
         <v>36951</v>
@@ -3272,7 +3277,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <f t="shared" si="5"/>
         <v>36982</v>
@@ -3293,7 +3298,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f t="shared" si="5"/>
         <v>37012</v>
@@ -3314,7 +3319,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <f t="shared" si="5"/>
         <v>37043</v>
@@ -3335,7 +3340,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f t="shared" si="5"/>
         <v>37073</v>
@@ -3356,7 +3361,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <f t="shared" si="5"/>
         <v>37104</v>
@@ -3377,7 +3382,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <f t="shared" si="5"/>
         <v>37135</v>
@@ -3398,7 +3403,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <f t="shared" si="5"/>
         <v>37165</v>
@@ -3419,7 +3424,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <f t="shared" si="5"/>
         <v>37196</v>
@@ -3440,7 +3445,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f t="shared" si="5"/>
         <v>37226</v>
@@ -3465,7 +3470,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
         <v>88</v>
       </c>
@@ -3483,7 +3488,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <f>EDATE(A87,1)</f>
         <v>37257</v>
@@ -3504,7 +3509,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <f>EDATE(A89,1)</f>
         <v>37288</v>
@@ -3525,7 +3530,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <f t="shared" ref="A91:A99" si="6">EDATE(A90,1)</f>
         <v>37316</v>
@@ -3546,7 +3551,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <f t="shared" si="6"/>
         <v>37347</v>
@@ -3567,7 +3572,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f t="shared" si="6"/>
         <v>37377</v>
@@ -3588,7 +3593,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <f t="shared" si="6"/>
         <v>37408</v>
@@ -3609,7 +3614,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f t="shared" si="6"/>
         <v>37438</v>
@@ -3630,7 +3635,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f t="shared" si="6"/>
         <v>37469</v>
@@ -3651,7 +3656,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <f t="shared" si="6"/>
         <v>37500</v>
@@ -3672,7 +3677,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <f t="shared" si="6"/>
         <v>37530</v>
@@ -3693,7 +3698,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <f t="shared" si="6"/>
         <v>37561</v>
@@ -3714,7 +3719,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f>EDATE(A99,1)</f>
         <v>37591</v>
@@ -3739,7 +3744,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
         <v>89</v>
       </c>
@@ -3757,7 +3762,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <f>EDATE(A100,1)</f>
         <v>37622</v>
@@ -3778,7 +3783,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <f>EDATE(A102,1)</f>
         <v>37653</v>
@@ -3799,7 +3804,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <f t="shared" ref="A104:A113" si="7">EDATE(A103,1)</f>
         <v>37681</v>
@@ -3826,7 +3831,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <f t="shared" si="7"/>
         <v>37712</v>
@@ -3847,7 +3852,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <f t="shared" si="7"/>
         <v>37742</v>
@@ -3868,7 +3873,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <f t="shared" si="7"/>
         <v>37773</v>
@@ -3889,7 +3894,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <f t="shared" si="7"/>
         <v>37803</v>
@@ -3910,7 +3915,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <f t="shared" si="7"/>
         <v>37834</v>
@@ -3931,7 +3936,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <f t="shared" si="7"/>
         <v>37865</v>
@@ -3952,7 +3957,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <f t="shared" si="7"/>
         <v>37895</v>
@@ -3973,7 +3978,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <f t="shared" si="7"/>
         <v>37926</v>
@@ -3994,7 +3999,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <f t="shared" si="7"/>
         <v>37956</v>
@@ -4019,7 +4024,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
         <v>93</v>
       </c>
@@ -4037,7 +4042,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <f>EDATE(A113,1)</f>
         <v>37987</v>
@@ -4058,7 +4063,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <f>EDATE(A115,1)</f>
         <v>38018</v>
@@ -4079,7 +4084,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <f t="shared" ref="A117:A126" si="8">EDATE(A116,1)</f>
         <v>38047</v>
@@ -4106,7 +4111,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <f t="shared" si="8"/>
         <v>38078</v>
@@ -4127,7 +4132,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <f t="shared" si="8"/>
         <v>38108</v>
@@ -4148,7 +4153,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <f t="shared" si="8"/>
         <v>38139</v>
@@ -4169,7 +4174,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <f t="shared" si="8"/>
         <v>38169</v>
@@ -4190,7 +4195,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <f t="shared" si="8"/>
         <v>38200</v>
@@ -4211,7 +4216,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <f t="shared" si="8"/>
         <v>38231</v>
@@ -4232,7 +4237,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <f t="shared" si="8"/>
         <v>38261</v>
@@ -4253,7 +4258,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <f t="shared" si="8"/>
         <v>38292</v>
@@ -4274,7 +4279,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <f t="shared" si="8"/>
         <v>38322</v>
@@ -4301,7 +4306,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="48" t="s">
         <v>96</v>
       </c>
@@ -4319,7 +4324,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <f>EDATE(A126,1)</f>
         <v>38353</v>
@@ -4340,7 +4345,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f>EDATE(A128,1)</f>
         <v>38384</v>
@@ -4361,7 +4366,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <f t="shared" ref="A130:A139" si="9">EDATE(A129,1)</f>
         <v>38412</v>
@@ -4388,7 +4393,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <f t="shared" si="9"/>
         <v>38443</v>
@@ -4409,7 +4414,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <f t="shared" si="9"/>
         <v>38473</v>
@@ -4430,7 +4435,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <f t="shared" si="9"/>
         <v>38504</v>
@@ -4451,7 +4456,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <f t="shared" si="9"/>
         <v>38534</v>
@@ -4478,7 +4483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <f t="shared" si="9"/>
         <v>38565</v>
@@ -4499,7 +4504,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <f t="shared" si="9"/>
         <v>38596</v>
@@ -4520,7 +4525,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <f t="shared" si="9"/>
         <v>38626</v>
@@ -4541,7 +4546,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <f t="shared" si="9"/>
         <v>38657</v>
@@ -4562,7 +4567,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <f t="shared" si="9"/>
         <v>38687</v>
@@ -4587,7 +4592,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="48" t="s">
         <v>101</v>
       </c>
@@ -4605,7 +4610,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <f>EDATE(A139,1)</f>
         <v>38718</v>
@@ -4626,7 +4631,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <f>EDATE(A141,1)</f>
         <v>38749</v>
@@ -4647,7 +4652,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <f t="shared" ref="A143:A152" si="10">EDATE(A142,1)</f>
         <v>38777</v>
@@ -4672,7 +4677,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <f t="shared" si="10"/>
         <v>38808</v>
@@ -4693,7 +4698,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <f t="shared" si="10"/>
         <v>38838</v>
@@ -4714,7 +4719,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <f t="shared" si="10"/>
         <v>38869</v>
@@ -4735,7 +4740,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <f t="shared" si="10"/>
         <v>38899</v>
@@ -4760,7 +4765,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <f t="shared" si="10"/>
         <v>38930</v>
@@ -4787,7 +4792,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>78</v>
@@ -4806,7 +4811,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>105</v>
@@ -4823,7 +4828,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <f>EDATE(A148,1)</f>
         <v>38961</v>
@@ -4848,7 +4853,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <f t="shared" si="10"/>
         <v>38991</v>
@@ -4875,7 +4880,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>107</v>
@@ -4892,7 +4897,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <f>EDATE(A152,1)</f>
         <v>39022</v>
@@ -4917,7 +4922,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <f>EDATE(A154,1)</f>
         <v>39052</v>
@@ -4944,7 +4949,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>111</v>
@@ -4964,7 +4969,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="48" t="s">
         <v>113</v>
       </c>
@@ -4982,7 +4987,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <f>EDATE(A155,1)</f>
         <v>39083</v>
@@ -5009,7 +5014,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
         <v>114</v>
@@ -5026,7 +5031,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <f>EDATE(A158,1)</f>
         <v>39114</v>
@@ -5051,7 +5056,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <f t="shared" ref="A161:A175" si="11">EDATE(A160,1)</f>
         <v>39142</v>
@@ -5078,7 +5083,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>117</v>
@@ -5095,7 +5100,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>118</v>
@@ -5112,7 +5117,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <f>EDATE(A161,1)</f>
         <v>39173</v>
@@ -5137,7 +5142,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <f t="shared" si="11"/>
         <v>39203</v>
@@ -5162,7 +5167,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <f t="shared" si="11"/>
         <v>39234</v>
@@ -5187,7 +5192,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <f t="shared" si="11"/>
         <v>39264</v>
@@ -5212,7 +5217,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <f t="shared" si="11"/>
         <v>39295</v>
@@ -5239,7 +5244,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>50</v>
@@ -5258,7 +5263,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>123</v>
@@ -5275,7 +5280,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <f>EDATE(A168,1)</f>
         <v>39326</v>
@@ -5300,7 +5305,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <f t="shared" si="11"/>
         <v>39356</v>
@@ -5327,7 +5332,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>125</v>
@@ -5344,7 +5349,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <f>EDATE(A172,1)</f>
         <v>39387</v>
@@ -5369,7 +5374,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <f t="shared" si="11"/>
         <v>39417</v>
@@ -5394,7 +5399,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="48" t="s">
         <v>134</v>
       </c>
@@ -5412,7 +5417,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <f>EDATE(A175,1)</f>
         <v>39448</v>
@@ -5437,7 +5442,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <f>EDATE(A177,1)</f>
         <v>39479</v>
@@ -5464,7 +5469,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>136</v>
@@ -5483,7 +5488,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>137</v>
@@ -5500,7 +5505,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23">
         <f>EDATE(A178,1)</f>
         <v>39508</v>
@@ -5525,7 +5530,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <f t="shared" ref="A182:A190" si="12">EDATE(A181,1)</f>
         <v>39539</v>
@@ -5546,7 +5551,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <f t="shared" si="12"/>
         <v>39569</v>
@@ -5567,7 +5572,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <f t="shared" si="12"/>
         <v>39600</v>
@@ -5588,7 +5593,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <f t="shared" si="12"/>
         <v>39630</v>
@@ -5609,7 +5614,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <f t="shared" si="12"/>
         <v>39661</v>
@@ -5630,7 +5635,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <f t="shared" si="12"/>
         <v>39692</v>
@@ -5651,7 +5656,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <f t="shared" si="12"/>
         <v>39722</v>
@@ -5672,7 +5677,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <f t="shared" si="12"/>
         <v>39753</v>
@@ -5693,7 +5698,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <f t="shared" si="12"/>
         <v>39783</v>
@@ -5718,7 +5723,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="48" t="s">
         <v>141</v>
       </c>
@@ -5736,7 +5741,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <f>EDATE(A190,1)</f>
         <v>39814</v>
@@ -5757,7 +5762,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <f>EDATE(A192,1)</f>
         <v>39845</v>
@@ -5778,7 +5783,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <f t="shared" ref="A194:A203" si="13">EDATE(A193,1)</f>
         <v>39873</v>
@@ -5803,7 +5808,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <f t="shared" si="13"/>
         <v>39904</v>
@@ -5824,7 +5829,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <f t="shared" si="13"/>
         <v>39934</v>
@@ -5845,7 +5850,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <f t="shared" si="13"/>
         <v>39965</v>
@@ -5866,7 +5871,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <f t="shared" si="13"/>
         <v>39995</v>
@@ -5887,7 +5892,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <f t="shared" si="13"/>
         <v>40026</v>
@@ -5908,7 +5913,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <f t="shared" si="13"/>
         <v>40057</v>
@@ -5929,7 +5934,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <f t="shared" si="13"/>
         <v>40087</v>
@@ -5950,7 +5955,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <f t="shared" si="13"/>
         <v>40118</v>
@@ -5971,7 +5976,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <f t="shared" si="13"/>
         <v>40148</v>
@@ -5992,7 +5997,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="48" t="s">
         <v>142</v>
       </c>
@@ -6010,7 +6015,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <f>EDATE(A203,1)</f>
         <v>40179</v>
@@ -6031,7 +6036,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <f>EDATE(A205,1)</f>
         <v>40210</v>
@@ -6052,7 +6057,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <f t="shared" ref="A207:A216" si="14">EDATE(A206,1)</f>
         <v>40238</v>
@@ -6077,7 +6082,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <f t="shared" si="14"/>
         <v>40269</v>
@@ -6098,7 +6103,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <f t="shared" si="14"/>
         <v>40299</v>
@@ -6119,7 +6124,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <f t="shared" si="14"/>
         <v>40330</v>
@@ -6140,7 +6145,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <f t="shared" si="14"/>
         <v>40360</v>
@@ -6161,7 +6166,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <f t="shared" si="14"/>
         <v>40391</v>
@@ -6182,7 +6187,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <f t="shared" si="14"/>
         <v>40422</v>
@@ -6203,7 +6208,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <f t="shared" si="14"/>
         <v>40452</v>
@@ -6224,7 +6229,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <f t="shared" si="14"/>
         <v>40483</v>
@@ -6245,7 +6250,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <f t="shared" si="14"/>
         <v>40513</v>
@@ -6270,7 +6275,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="48" t="s">
         <v>144</v>
       </c>
@@ -6288,7 +6293,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <f>EDATE(A216,1)</f>
         <v>40544</v>
@@ -6309,7 +6314,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <f>EDATE(A218,1)</f>
         <v>40575</v>
@@ -6336,7 +6341,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <f t="shared" ref="A220:A228" si="15">EDATE(A219,1)</f>
         <v>40603</v>
@@ -6363,7 +6368,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <f t="shared" si="15"/>
         <v>40634</v>
@@ -6384,7 +6389,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <f t="shared" si="15"/>
         <v>40664</v>
@@ -6405,7 +6410,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <f t="shared" si="15"/>
         <v>40695</v>
@@ -6426,7 +6431,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <f t="shared" si="15"/>
         <v>40725</v>
@@ -6453,7 +6458,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <f t="shared" si="15"/>
         <v>40756</v>
@@ -6474,7 +6479,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <f t="shared" si="15"/>
         <v>40787</v>
@@ -6495,7 +6500,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <f t="shared" si="15"/>
         <v>40817</v>
@@ -6516,7 +6521,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <f t="shared" si="15"/>
         <v>40848</v>
@@ -6541,7 +6546,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <f>EDATE(A228,1)</f>
         <v>40878</v>
@@ -6568,7 +6573,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>151</v>
@@ -6585,7 +6590,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="48" t="s">
         <v>150</v>
       </c>
@@ -6603,7 +6608,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <f>EDATE(A229,1)</f>
         <v>40909</v>
@@ -6630,7 +6635,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <f>EDATE(A232,1)</f>
         <v>40940</v>
@@ -6651,7 +6656,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <f t="shared" ref="A234:A243" si="16">EDATE(A233,1)</f>
         <v>40969</v>
@@ -6678,7 +6683,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <f t="shared" si="16"/>
         <v>41000</v>
@@ -6699,7 +6704,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <f t="shared" si="16"/>
         <v>41030</v>
@@ -6720,7 +6725,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <f t="shared" si="16"/>
         <v>41061</v>
@@ -6741,7 +6746,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <f t="shared" si="16"/>
         <v>41091</v>
@@ -6762,7 +6767,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <f t="shared" si="16"/>
         <v>41122</v>
@@ -6787,7 +6792,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <f t="shared" si="16"/>
         <v>41153</v>
@@ -6808,7 +6813,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <f t="shared" si="16"/>
         <v>41183</v>
@@ -6829,7 +6834,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <f t="shared" si="16"/>
         <v>41214</v>
@@ -6856,7 +6861,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <f t="shared" si="16"/>
         <v>41244</v>
@@ -6877,7 +6882,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="48" t="s">
         <v>156</v>
       </c>
@@ -6895,7 +6900,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <f>EDATE(A243,1)</f>
         <v>41275</v>
@@ -6922,7 +6927,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <f>EDATE(A245,1)</f>
         <v>41306</v>
@@ -6943,7 +6948,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <f t="shared" ref="A247:A256" si="17">EDATE(A246,1)</f>
         <v>41334</v>
@@ -6970,7 +6975,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <f t="shared" si="17"/>
         <v>41365</v>
@@ -6991,7 +6996,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <f t="shared" si="17"/>
         <v>41395</v>
@@ -7012,7 +7017,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <f t="shared" si="17"/>
         <v>41426</v>
@@ -7033,7 +7038,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <f t="shared" si="17"/>
         <v>41456</v>
@@ -7054,7 +7059,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <f t="shared" si="17"/>
         <v>41487</v>
@@ -7075,7 +7080,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <f t="shared" si="17"/>
         <v>41518</v>
@@ -7102,7 +7107,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <f t="shared" si="17"/>
         <v>41548</v>
@@ -7123,7 +7128,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <f t="shared" si="17"/>
         <v>41579</v>
@@ -7144,7 +7149,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <f t="shared" si="17"/>
         <v>41609</v>
@@ -7169,7 +7174,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>97</v>
@@ -7189,7 +7194,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="48" t="s">
         <v>161</v>
       </c>
@@ -7207,7 +7212,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <f>EDATE(A256,1)</f>
         <v>41640</v>
@@ -7234,7 +7239,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>50</v>
@@ -7253,7 +7258,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <f>EDATE(A259,1)</f>
         <v>41671</v>
@@ -7274,7 +7279,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <f t="shared" ref="A262:A271" si="18">EDATE(A261,1)</f>
         <v>41699</v>
@@ -7301,7 +7306,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <f t="shared" si="18"/>
         <v>41730</v>
@@ -7328,7 +7333,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <f t="shared" si="18"/>
         <v>41760</v>
@@ -7355,7 +7360,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <f t="shared" si="18"/>
         <v>41791</v>
@@ -7376,7 +7381,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <f t="shared" si="18"/>
         <v>41821</v>
@@ -7397,7 +7402,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <f t="shared" si="18"/>
         <v>41852</v>
@@ -7424,7 +7429,7 @@
         <v>45143</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <f t="shared" si="18"/>
         <v>41883</v>
@@ -7445,7 +7450,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <f t="shared" si="18"/>
         <v>41913</v>
@@ -7466,7 +7471,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <f t="shared" si="18"/>
         <v>41944</v>
@@ -7487,7 +7492,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <f t="shared" si="18"/>
         <v>41974</v>
@@ -7514,7 +7519,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>97</v>
@@ -7534,7 +7539,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="48" t="s">
         <v>168</v>
       </c>
@@ -7552,7 +7557,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <f>EDATE(A271,1)</f>
         <v>42005</v>
@@ -7573,7 +7578,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <f>EDATE(A274,1)</f>
         <v>42036</v>
@@ -7600,7 +7605,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>50</v>
@@ -7619,7 +7624,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>62</v>
@@ -7638,7 +7643,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <f>EDATE(A275,1)</f>
         <v>42064</v>
@@ -7665,7 +7670,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <f t="shared" ref="A279:A289" si="19">EDATE(A278,1)</f>
         <v>42095</v>
@@ -7686,7 +7691,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <f t="shared" si="19"/>
         <v>42125</v>
@@ -7707,7 +7712,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23">
         <f t="shared" si="19"/>
         <v>42156</v>
@@ -7728,7 +7733,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <f t="shared" si="19"/>
         <v>42186</v>
@@ -7749,7 +7754,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <f t="shared" si="19"/>
         <v>42217</v>
@@ -7776,7 +7781,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>62</v>
@@ -7798,7 +7803,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <f>EDATE(A283,1)</f>
         <v>42248</v>
@@ -7819,7 +7824,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <f t="shared" si="19"/>
         <v>42278</v>
@@ -7846,7 +7851,7 @@
         <v>45214</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>62</v>
@@ -7865,7 +7870,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <f>EDATE(A286,1)</f>
         <v>42309</v>
@@ -7886,7 +7891,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <f t="shared" si="19"/>
         <v>42339</v>
@@ -7911,7 +7916,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="48" t="s">
         <v>170</v>
       </c>
@@ -7929,7 +7934,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <f>EDATE(A289,1)</f>
         <v>42370</v>
@@ -7956,7 +7961,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <f>EDATE(A291,1)</f>
         <v>42401</v>
@@ -7977,7 +7982,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <f t="shared" ref="A293:A302" si="20">EDATE(A292,1)</f>
         <v>42430</v>
@@ -8004,7 +8009,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <f t="shared" si="20"/>
         <v>42461</v>
@@ -8031,7 +8036,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <f t="shared" si="20"/>
         <v>42491</v>
@@ -8058,7 +8063,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <f t="shared" si="20"/>
         <v>42522</v>
@@ -8079,7 +8084,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <f t="shared" si="20"/>
         <v>42552</v>
@@ -8100,7 +8105,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <f t="shared" si="20"/>
         <v>42583</v>
@@ -8121,7 +8126,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <f t="shared" si="20"/>
         <v>42614</v>
@@ -8142,7 +8147,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <f t="shared" si="20"/>
         <v>42644</v>
@@ -8163,7 +8168,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <f t="shared" si="20"/>
         <v>42675</v>
@@ -8190,7 +8195,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <f t="shared" si="20"/>
         <v>42705</v>
@@ -8215,7 +8220,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="48" t="s">
         <v>175</v>
       </c>
@@ -8233,7 +8238,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <f>EDATE(A302,1)</f>
         <v>42736</v>
@@ -8258,7 +8263,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <f>EDATE(A304,1)</f>
         <v>42767</v>
@@ -8285,7 +8290,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>45</v>
@@ -8304,7 +8309,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <f>EDATE(A305,1)</f>
         <v>42795</v>
@@ -8325,7 +8330,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <f t="shared" ref="A308:A316" si="21">EDATE(A307,1)</f>
         <v>42826</v>
@@ -8346,7 +8351,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <f t="shared" si="21"/>
         <v>42856</v>
@@ -8367,7 +8372,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <f t="shared" si="21"/>
         <v>42887</v>
@@ -8394,7 +8399,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <f t="shared" si="21"/>
         <v>42917</v>
@@ -8415,7 +8420,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <f t="shared" si="21"/>
         <v>42948</v>
@@ -8436,7 +8441,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <f t="shared" si="21"/>
         <v>42979</v>
@@ -8457,7 +8462,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <f t="shared" si="21"/>
         <v>43009</v>
@@ -8482,7 +8487,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <f t="shared" si="21"/>
         <v>43040</v>
@@ -8503,7 +8508,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <f t="shared" si="21"/>
         <v>43070</v>
@@ -8524,7 +8529,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="48" t="s">
         <v>44</v>
       </c>
@@ -8546,7 +8551,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>43101</v>
       </c>
@@ -8566,7 +8571,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>43132</v>
       </c>
@@ -8592,7 +8597,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>45</v>
@@ -8611,7 +8616,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>43160</v>
       </c>
@@ -8629,7 +8634,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>43191</v>
       </c>
@@ -8647,7 +8652,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>43221</v>
       </c>
@@ -8665,7 +8670,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>43252</v>
       </c>
@@ -8683,7 +8688,7 @@
       <c r="J324" s="12"/>
       <c r="K324" s="15"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>43282</v>
       </c>
@@ -8701,7 +8706,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>43313</v>
       </c>
@@ -8719,7 +8724,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>43344</v>
       </c>
@@ -8737,7 +8742,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>43374</v>
       </c>
@@ -8755,7 +8760,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>43405</v>
       </c>
@@ -8773,7 +8778,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>43435</v>
       </c>
@@ -8791,7 +8796,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="48" t="s">
         <v>48</v>
       </c>
@@ -8809,7 +8814,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>43466</v>
       </c>
@@ -8829,7 +8834,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>43497</v>
       </c>
@@ -8849,7 +8854,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>43525</v>
       </c>
@@ -8875,7 +8880,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>43556</v>
       </c>
@@ -8901,7 +8906,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>43586</v>
       </c>
@@ -8921,7 +8926,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>43617</v>
       </c>
@@ -8947,7 +8952,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>51</v>
@@ -8966,7 +8971,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>43647</v>
       </c>
@@ -8986,7 +8991,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>43678</v>
       </c>
@@ -9006,7 +9011,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>43709</v>
       </c>
@@ -9026,7 +9031,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>43739</v>
       </c>
@@ -9046,7 +9051,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>43770</v>
       </c>
@@ -9066,7 +9071,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>43800</v>
       </c>
@@ -9086,7 +9091,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="48" t="s">
         <v>56</v>
       </c>
@@ -9104,7 +9109,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>43831</v>
       </c>
@@ -9124,7 +9129,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>43862</v>
       </c>
@@ -9144,7 +9149,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>43891</v>
       </c>
@@ -9170,7 +9175,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>49</v>
@@ -9189,7 +9194,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>43922</v>
       </c>
@@ -9209,7 +9214,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>43952</v>
       </c>
@@ -9229,7 +9234,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>43983</v>
       </c>
@@ -9249,7 +9254,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>44013</v>
       </c>
@@ -9269,7 +9274,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>44044</v>
       </c>
@@ -9289,7 +9294,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>44075</v>
       </c>
@@ -9309,7 +9314,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>44105</v>
       </c>
@@ -9329,7 +9334,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>44136</v>
       </c>
@@ -9349,7 +9354,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44166</v>
       </c>
@@ -9373,7 +9378,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="48" t="s">
         <v>60</v>
       </c>
@@ -9391,7 +9396,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>44197</v>
       </c>
@@ -9411,7 +9416,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>44228</v>
       </c>
@@ -9431,7 +9436,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>44256</v>
       </c>
@@ -9457,7 +9462,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>44287</v>
       </c>
@@ -9477,7 +9482,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>44317</v>
       </c>
@@ -9497,7 +9502,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>44348</v>
       </c>
@@ -9523,7 +9528,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>45</v>
@@ -9542,7 +9547,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>44378</v>
       </c>
@@ -9562,7 +9567,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>44409</v>
       </c>
@@ -9582,7 +9587,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>44440</v>
       </c>
@@ -9602,7 +9607,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>44470</v>
       </c>
@@ -9622,7 +9627,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>44501</v>
       </c>
@@ -9642,7 +9647,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>44531</v>
       </c>
@@ -9662,7 +9667,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="48" t="s">
         <v>66</v>
       </c>
@@ -9680,7 +9685,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>44562</v>
       </c>
@@ -9706,7 +9711,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>44593</v>
       </c>
@@ -9726,7 +9731,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>44621</v>
       </c>
@@ -9752,7 +9757,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>44652</v>
       </c>
@@ -9772,7 +9777,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>44682</v>
       </c>
@@ -9792,7 +9797,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>44713</v>
       </c>
@@ -9812,7 +9817,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>44743</v>
       </c>
@@ -9838,7 +9843,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>62</v>
@@ -9860,7 +9865,7 @@
         <v>44752</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>44774</v>
       </c>
@@ -9880,7 +9885,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>44805</v>
       </c>
@@ -9900,7 +9905,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>44835</v>
       </c>
@@ -9926,7 +9931,7 @@
         <v>44835</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>44866</v>
       </c>
@@ -9952,7 +9957,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>44896</v>
       </c>
@@ -9978,7 +9983,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="48" t="s">
         <v>72</v>
       </c>
@@ -9996,7 +10001,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>44927</v>
       </c>
@@ -10022,7 +10027,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>44958</v>
       </c>
@@ -10042,7 +10047,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>44986</v>
       </c>
@@ -10068,7 +10073,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>45017</v>
       </c>
@@ -10094,7 +10099,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>45047</v>
       </c>
@@ -10118,11 +10123,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>45078</v>
       </c>
-      <c r="B393" s="20"/>
+      <c r="B393" s="20" t="s">
+        <v>186</v>
+      </c>
       <c r="C393" s="13"/>
       <c r="D393" s="39"/>
       <c r="E393" s="9"/>
@@ -10131,12 +10138,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H393" s="39"/>
+      <c r="H393" s="39">
+        <v>21</v>
+      </c>
       <c r="I393" s="9"/>
       <c r="J393" s="11"/>
-      <c r="K393" s="20"/>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K393" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>45108</v>
       </c>
@@ -10154,7 +10165,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>45139</v>
       </c>
@@ -10172,7 +10183,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>45170</v>
       </c>
@@ -10190,7 +10201,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>45200</v>
       </c>
@@ -10208,7 +10219,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>45231</v>
       </c>
@@ -10226,7 +10237,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>45261</v>
       </c>
@@ -10244,7 +10255,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>45292</v>
       </c>
@@ -10262,7 +10273,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>45323</v>
       </c>
@@ -10280,7 +10291,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>45352</v>
       </c>
@@ -10298,7 +10309,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>45383</v>
       </c>
@@ -10316,7 +10327,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>45413</v>
       </c>
@@ -10334,7 +10345,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>45444</v>
       </c>
@@ -10352,7 +10363,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>45474</v>
       </c>
@@ -10370,7 +10381,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>45505</v>
       </c>
@@ -10388,7 +10399,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>45536</v>
       </c>
@@ -10406,7 +10417,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>45566</v>
       </c>
@@ -10424,7 +10435,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>45597</v>
       </c>
@@ -10442,7 +10453,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>45627</v>
       </c>
@@ -10460,7 +10471,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>45658</v>
       </c>
@@ -10478,7 +10489,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>45689</v>
       </c>
@@ -10496,7 +10507,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>45717</v>
       </c>
@@ -10514,7 +10525,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>45748</v>
       </c>
@@ -10532,7 +10543,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>45778</v>
       </c>
@@ -10550,7 +10561,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>45809</v>
       </c>
@@ -10568,7 +10579,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>45839</v>
       </c>
@@ -10586,7 +10597,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>45870</v>
       </c>
@@ -10604,7 +10615,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>45901</v>
       </c>
@@ -10622,7 +10633,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>45931</v>
       </c>
@@ -10640,7 +10651,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>45962</v>
       </c>
@@ -10658,7 +10669,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>45992</v>
       </c>
@@ -10676,7 +10687,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>46023</v>
       </c>
@@ -10694,7 +10705,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>46054</v>
       </c>
@@ -10712,7 +10723,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>46082</v>
       </c>
@@ -10730,7 +10741,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>46113</v>
       </c>
@@ -10748,7 +10759,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>46143</v>
       </c>
@@ -10766,7 +10777,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>46174</v>
       </c>
@@ -10784,7 +10795,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>46204</v>
       </c>
@@ -10802,7 +10813,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>46235</v>
       </c>
@@ -10820,7 +10831,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>46266</v>
       </c>
@@ -10838,7 +10849,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>46296</v>
       </c>
@@ -10856,7 +10867,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>46327</v>
       </c>
@@ -10874,7 +10885,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>46357</v>
       </c>
@@ -10892,7 +10903,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>46388</v>
       </c>
@@ -10910,7 +10921,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>46419</v>
       </c>
@@ -10928,7 +10939,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>46447</v>
       </c>
@@ -10946,7 +10957,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>46478</v>
       </c>
@@ -10964,7 +10975,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>46508</v>
       </c>
@@ -10982,7 +10993,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="41"/>
       <c r="B441" s="15"/>
       <c r="C441" s="42"/>
@@ -11013,10 +11024,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11039,28 +11050,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -11073,7 +11084,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11102,7 +11113,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.45800000000000002</v>
       </c>
@@ -11132,17 +11143,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11163,7 +11174,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11190,7 +11201,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11216,7 +11227,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11242,7 +11253,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11268,7 +11279,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11294,7 +11305,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11320,7 +11331,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11346,7 +11357,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11372,7 +11383,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11392,7 +11403,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11412,7 +11423,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -11432,7 +11443,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11453,7 +11464,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11474,7 +11485,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -11495,7 +11506,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -11516,7 +11527,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -11537,7 +11548,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -11558,7 +11569,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -11579,7 +11590,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -11600,7 +11611,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -11621,7 +11632,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -11642,7 +11653,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -11663,7 +11674,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -11684,7 +11695,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -11705,7 +11716,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -11726,7 +11737,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -11747,7 +11758,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -11768,7 +11779,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -11789,7 +11800,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -11810,7 +11821,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -11831,7 +11842,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -11852,7 +11863,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -11861,7 +11872,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -11870,7 +11881,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -11879,7 +11890,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -11888,7 +11899,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -11897,7 +11908,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -11906,7 +11917,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -11915,7 +11926,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -11924,7 +11935,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -11933,7 +11944,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -11942,7 +11953,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -11951,7 +11962,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -11960,7 +11971,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -11969,7 +11980,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -11978,7 +11989,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -11987,7 +11998,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -11996,7 +12007,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12005,7 +12016,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12014,7 +12025,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12023,7 +12034,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12032,7 +12043,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12041,7 +12052,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12050,7 +12061,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12059,7 +12070,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12068,7 +12079,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12077,7 +12088,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12086,7 +12097,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12095,7 +12106,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12104,7 +12115,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12113,7 +12124,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
